--- a/datasets/reasoning/jama_reasoning_subset.xlsx
+++ b/datasets/reasoning/jama_reasoning_subset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>difficulty</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difficulty</t>
+          <t>diagnosis_dsm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>diagnosis_dsm</t>
+          <t>diagnosis_icd</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosis_icd</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>reasoning</t>
         </is>
@@ -507,7 +502,6 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,7 +537,6 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -576,7 +569,6 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -608,7 +600,6 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -635,13 +626,16 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1013</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ben is a 12 month old infant that presented for a well check to their new pediatrician. Ben’s father indicates the Ben has been without any recent infections or sick exposures, and is up-to-date on immunizations. Ben’s father does recount that “Ben looks very different from our other children. His eyes seem to be space father apart, and his ears look much lower than his siblings when they were babies.” Ben’s father also indicates, “we have a hard time leaving him alone for more than 1 minute before he starts crying loudly; his cry sounds very much like a cat.” Ben was born at 4 lbs 5 oz and had to spend about 1 week in the neonatal intensive care unit for what Ben’s dad reports was “something to do with his heart; it was the wrong shape or something.” Ben has had to meet with a pediatric gastroenterologist since birth for problems related to feeding. Ben’s father reports they met with a geneticist about 2 weeks ago, and they are awaiting the results from that testing. On direct exam by pediatrician, the patient is noted to have rather diffuse hypotonia, excessive drooling, a small head and jaw, and a fixed splitting of the second heart sound.</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Cri-du-chat Syndrome (Q93.4) vs Unspecified neurodevelopmental disorder (F89.0)</t>
@@ -654,17 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ben is a 12 month old infant that presented for a well check to their new pediatrician. Ben’s father indicates the Ben has been without any recent infections or sick exposures, and is up-to-date on immunizations. Ben’s father does recount that “Ben looks very different from our other children. His eyes seem to be space father apart, and his ears look much lower than his siblings when they were babies.” Ben’s father also indicates, “we have a hard time leaving him alone for more than 1 minute before he starts crying loudly; his cry sounds very much like a cat.” Ben was born at 4 lbs 5 oz and had to spend about 1 week in the neonatal intensive care unit for what Ben’s dad reports was “something to do with his heart; it was the wrong shape or something.” Ben has had to meet with a pediatric gastroenterologist since birth for problems related to feeding. Ben’s father reports they met with a geneticist about 2 weeks ago, and they are awaiting the results from that testing. On direct exam by pediatrician, the patient is noted to have rather diffuse hypotonia, excessive drooling, a small head and jaw, and a fixed splitting of the second heart sound.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>Hard. While this diagnosis can be made with the aforementioned clinical signs, confirmation is typically done by genetic testing, which is yet to be determined here.</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,13 +683,16 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1032</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patient is a 10-year-old female who is brought into the walk-in area of a psychiatric hospital for hitting kids at school. The patient is a ward of the state, both of her parents were found to be unfit to care for the child. The guardian received a report from her teacher that the patient slapped a classmate during an argument. The patient is in the 5th grade. She has had many other reports this year for throwing tantrums and getting into fights. Guardian reports that patient has a history of being returned from various foster and adoptive families due to anger and aggression. She states that since the patient has been under her care, she has noticed the patient to be easily irritable with little to no accountability for her own actions, blaming the other kids for annoying her or saying that “I didn’t mean it.” Aggressive outbursts occur multiple times a week. When asked, the patient says that other kids annoy her but is unable to specify examples. She also says that staff and teachers annoy her too. However, she denies hitting them. The patient during the assessment repeated interrupts the guardian and the evaluator saying, “I didn’t do anything,” and begging to be taken home. As guardian shares reports made by the school, the patient interrupts and calls guardian a “liar” and is visibly upset. Patient begs the evaluator to let her go home and not recommend hospitalization. However, when evaluator informed patient that aggression is often a reason for admission, patient suddenly becomes very angry, picking up a tissues box and throwing it at the glass divider between her and the evaluator. When evaluator pointed out her behavior, patient immediately becomes tearful and apologetic, stating,” I didn’t do anything, I didn’t mean it, I didn’t even hit you.” Guardian states that behaviors like this is what she is referring to. Guardian reports that her outbursts are most common when she doesn’t get her way, but that she seems to be irritable in general as well.</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Disruptive mood dysregulation disorder (F34.81)</t>
@@ -711,23 +703,18 @@
           <t>ashley_huang</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Patient is a 10-year-old female who is brought into the walk-in area of a psychiatric hospital for hitting kids at school. The patient is a ward of the state, both of her parents were found to be unfit to care for the child. The guardian received a report from her teacher that the patient slapped a classmate during an argument. The patient is in the 5th grade. She has had many other reports this year for throwing tantrums and getting into fights. Guardian reports that patient has a history of being returned from various foster and adoptive families due to anger and aggression. She states that since the patient has been under her care, she has noticed the patient to be easily irritable with little to no accountability for her own actions, blaming the other kids for annoying her or saying that “I didn’t mean it.” Aggressive outbursts occur multiple times a week. When asked, the patient says that other kids annoy her but is unable to specify examples. She also says that staff and teachers annoy her too. However, she denies hitting them. The patient during the assessment repeated interrupts the guardian and the evaluator saying, “I didn’t do anything,” and begging to be taken home. As guardian shares reports made by the school, the patient interrupts and calls guardian a “liar” and is visibly upset. Patient begs the evaluator to let her go home and not recommend hospitalization. However, when evaluator informed patient that aggression is often a reason for admission, patient suddenly becomes very angry, picking up a tissues box and throwing it at the glass divider between her and the evaluator. When evaluator pointed out her behavior, patient immediately becomes tearful and apologetic, stating,” I didn’t do anything, I didn’t mean it, I didn’t even hit you.” Guardian states that behaviors like this is what she is referring to. Guardian reports that her outbursts are most common when she doesn’t get her way, but that she seems to be irritable in general as well.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Disruptive mood dysregulation disorder (DMDD)</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Disruptive mood dysregulation disorder (DMDD)</t>
+          <t>Disruptive mood dysregulation disorder (F34.81)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>Disruptive mood dysregulation disorder (F34.81)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>The patient has outbursts that demonstrate poor emotional regulation. She is described as irritable even between outbursts and symptoms started before the age of 10. She has multiple episodes per week. Her outbursts are against both authority figures and peers which makes diagnosis DMDD rather than ODD.</t>
         </is>
@@ -737,7 +724,11 @@
       <c r="A10" t="n">
         <v>1003</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neveah is a 14 year old girl that comes to her pediatrician with her mother (presently 4 months pregnant) due to “out of control behaviors at home.” The patient appears restless in the exam room and requiring redirection from her mother throughout the visit. The patient frequently punches her mother in the legs, and in the stomach, and the patient even threw her ipad at the pediatrician when she asked the patient what was upsetting her. Most of the patients psychiatric history is gathered from her mother, given how irritable the patient is during the exam. The mother reports Neveah was born 8 weeks pre-mature, spent about 1 month in the neonatal intensive care unit due to problems with breathing, and ultimately discharged home to her care at one month of age. The patient met developmental milestones on or near expected time, and was “clingy” when she was a toddler, but had no problems making friends in daycare and grade school. When patient was about 11 years of age, her biological father left the home to join the military, and has deployed ever since. Around 12 years of age, around summertime, the patient appeared much more talkative, energetic, and would go several days only needing about 3 hours of sleep at night. She was more impulsive during these times, and believed she had super powers to “make her friends get in trouble at school”, even when she was not at school herself. She was never tired the following day. During that same period, she had many temper tantrums throughout the day, almost every day of the week, that seemed disproportionate to circumstances, like having to have a peanut butter and jelly sandwich instead of a peanut butter and fluff sandwich. The tantrums would last several hours in a day. This pattern of behavior would last for several weeks at a time, with periods of months returning to normal mood and behavior. The patient never appeared to be hallucination or responding to internal stimuli, and never appeared sad or depressed. Neveah had to be hospitalized during an episode like this when she was 13 years old. Neveah refuses to take medications for her symptoms. The start of this year academic year, that patient appeared more calm and in good behavioral control, but began to have similar symptoms of irritability, violence at home, not needing to sleep, talking fast, and property destruction at home.</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Bipolar disorder, current episode manic (F31.2)</t>
@@ -748,15 +739,10 @@
           <t>judah_weathers</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Neveah is a 14 year old girl that comes to her pediatrician with her mother (presently 4 months pregnant) due to “out of control behaviors at home.” The patient appears restless in the exam room and requiring redirection from her mother throughout the visit. The patient frequently punches her mother in the legs, and in the stomach, and the patient even threw her ipad at the pediatrician when she asked the patient what was upsetting her. Most of the patients psychiatric history is gathered from her mother, given how irritable the patient is during the exam. The mother reports Neveah was born 8 weeks pre-mature, spent about 1 month in the neonatal intensive care unit due to problems with breathing, and ultimately discharged home to her care at one month of age. The patient met developmental milestones on or near expected time, and was “clingy” when she was a toddler, but had no problems making friends in daycare and grade school. When patient was about 11 years of age, her biological father left the home to join the military, and has deployed ever since. Around 12 years of age, around summertime, the patient appeared much more talkative, energetic, and would go several days only needing about 3 hours of sleep at night. She was more impulsive during these times, and believed she had super powers to “make her friends get in trouble at school”, even when she was not at school herself. She was never tired the following day. During that same period, she had many temper tantrums throughout the day, almost every day of the week, that seemed disproportionate to circumstances, like having to have a peanut butter and jelly sandwich instead of a peanut butter and fluff sandwich. The tantrums would last several hours in a day. This pattern of behavior would last for several weeks at a time, with periods of months returning to normal mood and behavior. The patient never appeared to be hallucination or responding to internal stimuli, and never appeared sad or depressed. Neveah had to be hospitalized during an episode like this when she was 13 years old. Neveah refuses to take medications for her symptoms. The start of this year academic year, that patient appeared more calm and in good behavioral control, but began to have similar symptoms of irritability, violence at home, not needing to sleep, talking fast, and property destruction at home.</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -790,7 +776,6 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -822,7 +807,6 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -852,7 +836,6 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -885,13 +868,16 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1021</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>The patient is an 18-year-old non-binary college freshman with a complex psychiatric presentation. They report a history of childhood anxiety, perfectionism, and ritualistic self-punishment behaviors starting in the third grade. Currently, their most debilitating symptom is anxiety about "contaminated air" when others cough or sneeze, prompting them to cover their face and hold their breath even when the trigger is far away or on television. They engage in checking and counting behaviors based on the number 3, including checking mirrors while driving, locking/unlocking their car, and tapping their toothbrush. These compulsions are experienced as uncontrollable, with the patient reporting they sometimes modify behaviors (like holding an imaginary door handle in their pocket) when the original compulsion would be disruptive. At approximately age 16, the patient developed anorexia nervosa, restricting their food intake and ultimately requiring intervention from parents and a treatment team. Despite gaining weight under external pressure, the patient continues to restrict eating, has a distinct fear of gaining weight, becoming fat, fasting until dinner, drinking coffee to intentionally upset their stomach. Their BMI currently falls within the normal range. Around the same time their eating disorder developed, the patient experienced depressive symptoms including hopelessness, low motivation, and self-harm behaviors (pulling hair, cutting, punching stomach). They had suicidal ideation during high school, including thoughts of jumping in front of a train and fantasizing about wandering into hallways during a school shooting. Current suicidal thoughts are less frequent and persistent. Current depressive symptoms have been subsyndromal (though not entirely absent) for about 7 months. Specifically, the patient currently denies experiencing depressive symptoms for more than a few hours every couple of weeks but rates their chance of self-harm in the next three months at 50% (suicide attempt chance at 0%). They report minimal alcohol and marijuana use. Notably, the patient expresses resistance to treatment, stating that "getting better means getting fat" and feeling they need to "stay sad for a while longer".</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Obsessive-compulsive disorder (F42.2); Anorexia nervosa, restricting type, in partial remission (F50.014); Major depressive disorder, recurrent, in partial remission (F33.41)</t>
@@ -902,15 +888,10 @@
           <t>brian_zaboski</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>The patient is an 18-year-old non-binary college freshman with a complex psychiatric presentation. They report a history of childhood anxiety, perfectionism, and ritualistic self-punishment behaviors starting in the third grade. Currently, their most debilitating symptom is anxiety about "contaminated air" when others cough or sneeze, prompting them to cover their face and hold their breath even when the trigger is far away or on television. They engage in checking and counting behaviors based on the number 3, including checking mirrors while driving, locking/unlocking their car, and tapping their toothbrush. These compulsions are experienced as uncontrollable, with the patient reporting they sometimes modify behaviors (like holding an imaginary door handle in their pocket) when the original compulsion would be disruptive. At approximately age 16, the patient developed anorexia nervosa, restricting their food intake and ultimately requiring intervention from parents and a treatment team. Despite gaining weight under external pressure, the patient continues to restrict eating, has a distinct fear of gaining weight, becoming fat, fasting until dinner, drinking coffee to intentionally upset their stomach. Their BMI currently falls within the normal range. Around the same time their eating disorder developed, the patient experienced depressive symptoms including hopelessness, low motivation, and self-harm behaviors (pulling hair, cutting, punching stomach). They had suicidal ideation during high school, including thoughts of jumping in front of a train and fantasizing about wandering into hallways during a school shooting. Current suicidal thoughts are less frequent and persistent. Current depressive symptoms have been subsyndromal (though not entirely absent) for about 7 months. Specifically, the patient currently denies experiencing depressive symptoms for more than a few hours every couple of weeks but rates their chance of self-harm in the next three months at 50% (suicide attempt chance at 0%). They report minimal alcohol and marijuana use. Notably, the patient expresses resistance to treatment, stating that "getting better means getting fat" and feeling they need to "stay sad for a while longer".</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -940,13 +921,16 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1049</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patient H is a 36 year old female with a history of major depressive disorder (MDD) who presents to an inpatient psychiatric hospital for bizarre behavior. Her mother had called the police after she noticed the patient was acting bizarrely at home, not eating, staring blankly at the walls, and not attending to her hygiene. The patient was diagnosed with MDD when she was 20 years old and has been on Zoloft for years. However, she recently lost her insurance and has not been able to take her Zoloft for 6 months. The patient had previously worked full-time as an accountant and was married with 2 children. On assessment, the patient is mute with poor hygiene. Her face at times will scrunch during the interview. She sits motionless in a chair, not answering any questions. She stares blankly at the psychiatrist and is unable to engage. When asked if she can stick her tongue out, she does not follow the simple command. The psychiatrist conducts a musculoskeletal exam and when they move her arm, they are met initially with a large amount of resistance that slowly decreases with time. The psychiatrist moves the patient’s arm above her head, and the pt leaves it there after the psychiatrist lets go. </t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Cataonia associated with another mental disorder (F06.1)</t>
@@ -957,23 +941,18 @@
           <t>juliana_zhang</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patient H is a 36 year old female with a history of major depressive disorder (MDD) who presents to an inpatient psychiatric hospital for bizarre behavior. Her mother had called the police after she noticed the patient was acting bizarrely at home, not eating, staring blankly at the walls, and not attending to her hygiene. The patient was diagnosed with MDD when she was 20 years old and has been on Zoloft for years. However, she recently lost her insurance and has not been able to take her Zoloft for 6 months. The patient had previously worked full-time as an accountant and was married with 2 children. On assessment, the patient is mute with poor hygiene. Her face at times will scrunch during the interview. She sits motionless in a chair, not answering any questions. She stares blankly at the psychiatrist and is unable to engage. When asked if she can stick her tongue out, she does not follow the simple command. The psychiatrist conducts a musculoskeletal exam and when they move her arm, they are met initially with a large amount of resistance that slowly decreases with time. The psychiatrist moves the patient’s arm above her head, and the pt leaves it there after the psychiatrist lets go. </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Catatonia</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Catatonia</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>Cataonia associated with another mental disorder (F06.1)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1006,13 +985,16 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1009</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Erin is a 16 year old girl that was brought to her pediatric for a routine health exam. Erin is a sophomore at the local high school, plays lacrosse and does ballet at the local arts theatre. Erin reports that she has had no problems with depressed, sad or hopeless mood symptoms, and denied problems with excessive worry or panic. She lives at home with her two mothers, older brother and their dog Fiji. The patient does report that she goes to the gym for about 3 hours each day of the week, during which she does about 2.5 hours of cardiovascular training. She states she skip lunch on most days, has a sliced apple for breakfast, and take her dinner to her bedroom to slowly eat the vegetable portion of dinner (only) over a period of about 3 hours. Menarche was at age 13.5, but she has missed 3 of her last periods. She reports a lot of gastric reflex, and its wakes her up at night time. She also reports “I don’t really have bowel movements anymore, so I take a laxative in the morning and at night time.” She aims to eat less than 1000 calories in a day.</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Anorexia nervosa, restrictive type (F50.01)</t>
@@ -1023,15 +1005,10 @@
           <t>judah_weathers</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Erin is a 16 year old girl that was brought to her pediatric for a routine health exam. Erin is a sophomore at the local high school, plays lacrosse and does ballet at the local arts theatre. Erin reports that she has had no problems with depressed, sad or hopeless mood symptoms, and denied problems with excessive worry or panic. She lives at home with her two mothers, older brother and their dog Fiji. The patient does report that she goes to the gym for about 3 hours each day of the week, during which she does about 2.5 hours of cardiovascular training. She states she skip lunch on most days, has a sliced apple for breakfast, and take her dinner to her bedroom to slowly eat the vegetable portion of dinner (only) over a period of about 3 hours. Menarche was at age 13.5, but she has missed 3 of her last periods. She reports a lot of gastric reflex, and its wakes her up at night time. She also reports “I don’t really have bowel movements anymore, so I take a laxative in the morning and at night time.” She aims to eat less than 1000 calories in a day.</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1062,7 +1039,6 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1089,13 +1065,16 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1020</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Patient is a 24-year-old gender fluid individual with a BA in creative writing and sociology who is currently living with their parents while taking courses part-time and seeking employment. They describe their living situation as "overwhelming" due to parental boundary issues, though they maintain a supportive romantic relationship since 2019. Their psychiatric history includes diagnoses of MDD and GAD at age 15-16, PTSD in 2016 following emotional abuse by high school friends, and ADHD in 2018 (without neuropsychological evaluation). Current medications include Lisdexamfetamine 50mg (since 2018), various supplements, and a contraceptive injection. They previously tried multiple antidepressants (2011-2015) but discontinued each after approximately two weeks due to suicidal ideation and, in one case, motor disturbances. The patient consumes alcohol socially (3-5 drinks monthly) and has been vaping marijuana 1-3 times weekly for three months primarily to aid sleep and manage anxiety. The patient's primary symptoms onset around age 5 with intrusive visualizations of falling down stairs along with perfectionism through rewriting notes until they felt "just right". Currently, they experience significant distress when surroundings are not in the "right spot", spending up to 12 hours reorganizing belongings without breaks, which would cause severe distress if interrupted. This "not just right" feeling impairs their ability to meet deadlines, complete job applications, and fulfill social obligations. They also engage in checking behaviors when packing (counting socks repeatedly, checking for essential items) and experience distressing sexual intrusive thoughts. Additionally, the patient exhibits skin-picking behaviors, spending over an hour picking at ingrown hairs until bleeding, scratching their neck and jaw during conversations, and tearing at cuticles, with symptoms worsening during periods of anxiety. They've attempted to stop by wearing pants constantly but have been unsuccessful. The patient has a significant history of depression with three past suicide attempts (overdoses in 2014, 2015, and 2017) and self-injury through cutting (stopped in 2017). They currently experience passive suicidal ideation, anhedonia, decreased appetite, sleep difficulties, psychomotor agitation, feelings of worthlessness, and concentration problems, though they report 0% chance of self-harm in the next three months. Social anxiety manifests as persistent fear of judgment and rejection, with distressing rumination about social interactions and excessive reassurance-seeking that has cost them friendships. The patient also reported past sexual abuse by a boyfriend for 4-5 months but denied PTSD symptoms. They disclosed a history of binge eating episodes. During the binge, they ate more rapidly than normal and felt disgusted and embarrassed after. After these eating binges, pt fasted for ~3 days. These eating binges occurred &lt;1 time per week, and the patient has not engaged in these behaviors in the past 2 months.</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Obsessive-Compulsive Disorder (F42.2); Major Depressive Disorder (moderate, recurrent) (F33.1); Social Anxiety Disorder (F40.10); Excoriation Disorder (F42.4); Other Specified Eating Disorder: bulimia nervosa (of low frequency and limited duration) (F50.89)</t>
@@ -1106,15 +1085,10 @@
           <t>brian_zaboski</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Patient is a 24-year-old gender fluid individual with a BA in creative writing and sociology who is currently living with their parents while taking courses part-time and seeking employment. They describe their living situation as "overwhelming" due to parental boundary issues, though they maintain a supportive romantic relationship since 2019. Their psychiatric history includes diagnoses of MDD and GAD at age 15-16, PTSD in 2016 following emotional abuse by high school friends, and ADHD in 2018 (without neuropsychological evaluation). Current medications include Lisdexamfetamine 50mg (since 2018), various supplements, and a contraceptive injection. They previously tried multiple antidepressants (2011-2015) but discontinued each after approximately two weeks due to suicidal ideation and, in one case, motor disturbances. The patient consumes alcohol socially (3-5 drinks monthly) and has been vaping marijuana 1-3 times weekly for three months primarily to aid sleep and manage anxiety. The patient's primary symptoms onset around age 5 with intrusive visualizations of falling down stairs along with perfectionism through rewriting notes until they felt "just right". Currently, they experience significant distress when surroundings are not in the "right spot", spending up to 12 hours reorganizing belongings without breaks, which would cause severe distress if interrupted. This "not just right" feeling impairs their ability to meet deadlines, complete job applications, and fulfill social obligations. They also engage in checking behaviors when packing (counting socks repeatedly, checking for essential items) and experience distressing sexual intrusive thoughts. Additionally, the patient exhibits skin-picking behaviors, spending over an hour picking at ingrown hairs until bleeding, scratching their neck and jaw during conversations, and tearing at cuticles, with symptoms worsening during periods of anxiety. They've attempted to stop by wearing pants constantly but have been unsuccessful. The patient has a significant history of depression with three past suicide attempts (overdoses in 2014, 2015, and 2017) and self-injury through cutting (stopped in 2017). They currently experience passive suicidal ideation, anhedonia, decreased appetite, sleep difficulties, psychomotor agitation, feelings of worthlessness, and concentration problems, though they report 0% chance of self-harm in the next three months. Social anxiety manifests as persistent fear of judgment and rejection, with distressing rumination about social interactions and excessive reassurance-seeking that has cost them friendships. The patient also reported past sexual abuse by a boyfriend for 4-5 months but denied PTSD symptoms. They disclosed a history of binge eating episodes. During the binge, they ate more rapidly than normal and felt disgusted and embarrassed after. After these eating binges, pt fasted for ~3 days. These eating binges occurred &lt;1 time per week, and the patient has not engaged in these behaviors in the past 2 months.</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1144,13 +1118,16 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1012</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Melanie is an 11 year old girl who was brought to urgent care by her mother after being sent home from school for “using racial slurs.” Melanie is the product of a full-term, uncomplicated pregnancy, vaginally delivered with normal APGAR (Appearance, Pulse, Grimace, Activity, Respiration) score at birth. Melanie used her first word “Momma” around 48 months of age, and didn’t start noticing other children playing with her until about 6 years old. Even at 6 years old, Melanie would not respond to her name when called, often appearing like she was in a daydream, and would often do a lot of “rocking” or “spinning” when anxious. Melanie’s mother indicates “Melanie is a unique kid. She doesn’t really make good eye contact with me, her father or her friends, and seems to be overly focused on doing puzzles all day. She has a hard time making friends, because all she wants to do is work on puzzles, and does little interactive play with others.” Melanies mother also indicates “if we take her puzzle away from her for dinner, she will have a complete ‘meltdown’ and be inconsolable for a good hour, ultimately leading to us having to give her the puzzle back.” Around 8 years of age, Melanie was found blinking her eyes repeatedly, and would say “I have to do it” whenever family questioned the eye blinking. The eye blinking slowly went away, but seemed to be replace by Melanie contorting her neck repeatedly, and especially when getting ready for school or leaving the house. Now, Melanie slaps herself in the head repeatedly when stressed, to the point that family has to adorn Melanie with soft gloves so she does not cause injury. About 13 months ago, Melanie start screaming out racial slurs when in the grocery store and school, and this would last for about 5 minutes in duration, until she was able to calm down. Otherwise, Melanie denied problems with sad, depressed or hopeless mood, nor problems with auditory or visual hallucinations. Melanies mother denied observations of bizarre rituals such as excessive handwashing, counting or organizing, but does report Melanie has a strong and persistent interest in puzzles. Melanie denied active thoughts, plans or intents of harm to self or others.</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Autistic Disorder (F 84.0); Tourette Syndrome (F95.2)</t>
@@ -1163,17 +1140,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Melanie is an 11 year old girl who was brought to urgent care by her mother after being sent home from school for “using racial slurs.” Melanie is the product of a full-term, uncomplicated pregnancy, vaginally delivered with normal APGAR (Appearance, Pulse, Grimace, Activity, Respiration) score at birth. Melanie used her first word “Momma” around 48 months of age, and didn’t start noticing other children playing with her until about 6 years old. Even at 6 years old, Melanie would not respond to her name when called, often appearing like she was in a daydream, and would often do a lot of “rocking” or “spinning” when anxious. Melanie’s mother indicates “Melanie is a unique kid. She doesn’t really make good eye contact with me, her father or her friends, and seems to be overly focused on doing puzzles all day. She has a hard time making friends, because all she wants to do is work on puzzles, and does little interactive play with others.” Melanies mother also indicates “if we take her puzzle away from her for dinner, she will have a complete ‘meltdown’ and be inconsolable for a good hour, ultimately leading to us having to give her the puzzle back.” Around 8 years of age, Melanie was found blinking her eyes repeatedly, and would say “I have to do it” whenever family questioned the eye blinking. The eye blinking slowly went away, but seemed to be replace by Melanie contorting her neck repeatedly, and especially when getting ready for school or leaving the house. Now, Melanie slaps herself in the head repeatedly when stressed, to the point that family has to adorn Melanie with soft gloves so she does not cause injury. About 13 months ago, Melanie start screaming out racial slurs when in the grocery store and school, and this would last for about 5 minutes in duration, until she was able to calm down. Otherwise, Melanie denied problems with sad, depressed or hopeless mood, nor problems with auditory or visual hallucinations. Melanies mother denied observations of bizarre rituals such as excessive handwashing, counting or organizing, but does report Melanie has a strong and persistent interest in puzzles. Melanie denied active thoughts, plans or intents of harm to self or others.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>Medium given LLM would need to be able to know that Tourette syndrome (vs Tic disorder) can only be diagnosed with both motor AND vocal tics present for at least 12 month duration, which the patient has here.</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1203,13 +1175,16 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1047</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Patient F is a 37 year old male with past medical history of hypertension and past psychiatric history of substance use disorder (marijuana, methamphetamine) and psychosis who presents after being brought in by police to the ED for aggression. The patient was reportedly at a gas station causing a disturbance, speaking about how everyone in there was the devil and throwing items off the shelves. When officers arrived, the patient was aggressive and had to be tased. On arrival, the patient had to receive emergency IM medications of Haldol, Ativan, and Benadryl due to agitation. Psychiatry was consulted for psychosis. On psychiatric assessment, the patient is drowsy after having just received the emergency IM medications. However, he is irritable and hostile, telling the physician to “fuck off” and that “the devil is out to get you”. He states he is “like a God” and that he was unfairly arrested. On chart review, he has a history of being prescribed antipsychotics, but currently pt denies taking any psychiatric medications. Assessment was limited due to the patient’s lack of engagement and hostility. Lab work was significant for UDS positive for marijuana, methamphetamine, and PCP. He started on a low-dose of scheduled Risperidone. The next day, he was reassessed by psychiatry. He is less hostile, but still irritable and asks if he can sleep. On limited assessment, pt denied thinking the devil was after him and did not make any grandiose statements about him being God. He did not appear internally preoccupied but was very sleepy. He was later assessed in the afternoon after he was repotedly asking to leave. He denied suicidal ideations, homicidal ideations, or auditory/visual hallucinations. While he was still irritable, he was more cooperative and states he does not recall being at a gas station. He does endorse to using marijuana, methamphetamine, and PCP “for 2 days straight”. He is currently homeless and wants to go to the shelter. He denies paranoia or any belief that he is God, states “that’s ridiculous” when asked that question. Patient was then discharged after spending 24 hours in the ED.</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>F19.150 other psychoactive substance abuse with psychoactive substance induced psychotic disorder with delusions, F15.10 Other stimulant abuse, F12.1 Cannabis abuse</t>
@@ -1220,23 +1195,18 @@
           <t>juliana_zhang</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Patient F is a 37 year old male with past medical history of hypertension and past psychiatric history of substance use disorder (marijuana, methamphetamine) and psychosis who presents after being brought in by police to the ED for aggression. The patient was reportedly at a gas station causing a disturbance, speaking about how everyone in there was the devil and throwing items off the shelves. When officers arrived, the patient was aggressive and had to be tased. On arrival, the patient had to receive emergency IM medications of Haldol, Ativan, and Benadryl due to agitation. Psychiatry was consulted for psychosis. On psychiatric assessment, the patient is drowsy after having just received the emergency IM medications. However, he is irritable and hostile, telling the physician to “fuck off” and that “the devil is out to get you”. He states he is “like a God” and that he was unfairly arrested. On chart review, he has a history of being prescribed antipsychotics, but currently pt denies taking any psychiatric medications. Assessment was limited due to the patient’s lack of engagement and hostility. Lab work was significant for UDS positive for marijuana, methamphetamine, and PCP. He started on a low-dose of scheduled Risperidone. The next day, he was reassessed by psychiatry. He is less hostile, but still irritable and asks if he can sleep. On limited assessment, pt denied thinking the devil was after him and did not make any grandiose statements about him being God. He did not appear internally preoccupied but was very sleepy. He was later assessed in the afternoon after he was repotedly asking to leave. He denied suicidal ideations, homicidal ideations, or auditory/visual hallucinations. While he was still irritable, he was more cooperative and states he does not recall being at a gas station. He does endorse to using marijuana, methamphetamine, and PCP “for 2 days straight”. He is currently homeless and wants to go to the shelter. He denies paranoia or any belief that he is God, states “that’s ridiculous” when asked that question. Patient was then discharged after spending 24 hours in the ED.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Substance induced psychotic disorder, polysubstance use disorder</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Substance induced psychotic disorder, polysubstance use disorder</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
           <t>F19.150 other psychoactive substance abuse with psychoactive substance induced psychotic disorder with delusions, F15.10 Other stimulant abuse, F12.1 Cannabis abuse</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1264,13 +1234,16 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1033</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The patient is a 12-year-old male who is brought to clinic by his mom due to multiple detentions for his behavior. Per the school report, patient does not follow instructions in class, becomes argumentative with teachers, and is disrespectful, often using profanities against his teachers and staff. Mom states that he has started doing the same at home as well, refusing to do his chores, arguing with her when she tells him to do his homework, and mocks her when she confronts him. She notes that in addition to refusal to do chores, he will intentionally create more chores to do, such as making messes and not cleaning them up. When asked directly about his behaviors, the patient looks at the evaluator and rolls his eyes. He tells the evaluator that it’s “none of your business” and kicks the desk. When asked if there is anything in his life causing stress that may be causing him to ask out, he states, “yea, my mom.” He denies any depression or suicidal ideation.</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Oppositional defiant disorder (F91.3)</t>
@@ -1281,29 +1254,28 @@
           <t>ashley_huang</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>The patient is a 12-year-old male who is brought to clinic by his mom due to multiple detentions for his behavior. Per the school report, patient does not follow instructions in class, becomes argumentative with teachers, and is disrespectful, often using profanities against his teachers and staff. Mom states that he has started doing the same at home as well, refusing to do his chores, arguing with her when she tells him to do his homework, and mocks her when she confronts him. She notes that in addition to refusal to do chores, he will intentionally create more chores to do, such as making messes and not cleaning them up. When asked directly about his behaviors, the patient looks at the evaluator and rolls his eyes. He tells the evaluator that it’s “none of your business” and kicks the desk. When asked if there is anything in his life causing stress that may be causing him to ask out, he states, “yea, my mom.” He denies any depression or suicidal ideation.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Oppositional defiant disorder</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Oppositional defiant disorder</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
           <t>Oppositional defiant disorder (F91.3)</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1056</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A 15-year-old male presented to outpatient follow-up after recent discharge from inpatient care following an incident in which he assaulted a male peer at school. During the visit, he appeared irritable, provided only one-word responses, and avoided eye contact. His parents reported that he has had longstanding behavioral difficulties, including chronic irritability, frequent angry outbursts, and academic struggles. The patient had to repeat fourth grade and also showing a recent decline in grades. Reached all milestones appropriately and denied history of trauma and abuse. At home, he has slammed the door during arguments. Socially, he has no friends and tends to isolate himself. He is good at basket-ball and tried for basketball team but was kicked out after he got into an argument with a peer. He lives with his biological mother and step father and loves to go for camping. He has 3 pet dogs and 2 cats (all adopted) and he is the primary care taker of all the pets. His school history is notable for getting into fights, including an episode of arguing with principal, when the principal didn’t listen to his justification after a fight with a peer. There is no indication of hallucinations or delusions, and no known substance use at this time.</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Disruptive Mood Dysregulation Disorder (DMDD) (F34.81)</t>
@@ -1314,15 +1286,10 @@
           <t>pooja_chaudhary</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A 15-year-old male presented to outpatient follow-up after recent discharge from inpatient care following an incident in which he assaulted a male peer at school. During the visit, he appeared irritable, provided only one-word responses, and avoided eye contact. His parents reported that he has had longstanding behavioral difficulties, including chronic irritability, frequent angry outbursts, and academic struggles. The patient had to repeat fourth grade and also showing a recent decline in grades. Reached all milestones appropriately and denied history of trauma and abuse. At home, he has slammed the door during arguments. Socially, he has no friends and tends to isolate himself. He is good at basket-ball and tried for basketball team but was kicked out after he got into an argument with a peer. He lives with his biological mother and step father and loves to go for camping. He has 3 pet dogs and 2 cats (all adopted) and he is the primary care taker of all the pets. His school history is notable for getting into fights, including an episode of arguing with principal, when the principal didn’t listen to his justification after a fight with a peer. There is no indication of hallucinations or delusions, and no known substance use at this time.</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>The patient’s presentation can easily be confused with Oppositional Defiant Disorder (ODD), however the chronic irritability, temper tantrums, academic impairment and overall timeline and frequency of symptoms favor more of DMDD symptoms. Interestingly, a child can-not be diagnosed with ODD and DMDD at the same time and hence its important to differentiate.</t>
         </is>
@@ -1356,7 +1323,6 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1387,7 +1353,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
